--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9630" windowHeight="3930"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="ForgotPassword" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:C11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -37,6 +39,12 @@
   </si>
   <si>
     <t>qwer</t>
+  </si>
+  <si>
+    <t>Email Id</t>
+  </si>
+  <si>
+    <t>sharmakantshashi01@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -371,7 +379,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +419,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -424,4 +432,35 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9630" windowHeight="3930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9630" windowHeight="3750"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -38,13 +38,13 @@
     <t>irmadan@gmail.com</t>
   </si>
   <si>
-    <t>qwer</t>
-  </si>
-  <si>
     <t>Email Id</t>
   </si>
   <si>
     <t>sharmakantshashi01@gmail.com</t>
+  </si>
+  <si>
+    <t>sha.rmakantshashi01@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,8 +421,8 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+      <c r="B4" s="2">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
@@ -449,12 +449,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
